--- a/docs/資料表/會員資料.xlsx
+++ b/docs/資料表/會員資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Transfer\docs\資料表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CHU-KANG-XUAN\docs\資料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E724B-8ED3-4531-90CF-9357E7DD109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9239011-65BD-4734-90D3-DDB8DBB2F0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表欄位" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,94 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>rn669@yahoo.com.tw</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">最多 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">12 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>最多</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 120 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
   <si>
     <t>surname</t>
   </si>
@@ -455,13 +528,169 @@
   </si>
   <si>
     <t>18號</t>
+  </si>
+  <si>
+    <t>個人簡介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱愛科技與運動，喜歡研究新科技產品，尤其對人工智慧與區塊鏈特別感興趣。平時喜歡跑步與登山，追求身心健康的生活方式。</t>
+  </si>
+  <si>
+    <t>個性活潑開朗，喜歡閱讀小說與寫作。在工作之餘常參加公益活動，希望透過行動為社會帶來正面影響，熱愛旅行與攝影。</t>
+  </si>
+  <si>
+    <t>藝術愛好者，擅長繪畫與手作，喜歡參加市集與藝術展。平時喜歡與朋友聚會，是個溫柔體貼、善解人意的人。</t>
+  </si>
+  <si>
+    <t>專精於資料分析與商業策略，對數字非常敏感，善於從資料中發掘商機。閒暇時熱愛下廚與閱讀歷史類書籍。</t>
+  </si>
+  <si>
+    <t>從事教育工作多年，喜歡與孩子互動。相信教育能改變未來，擁有無限的耐心與熱忱。也喜歡園藝與音樂療癒生活。</t>
+  </si>
+  <si>
+    <t>個性爽朗，從事行銷相關工作。熱愛挑戰，喜歡快速變化的生活節奏。假日常去騎單車，享受自然與自由。</t>
+  </si>
+  <si>
+    <t>個性溫和，喜歡簡單樸實的生活。擁有會計背景，對數字與細節特別敏感。閒暇喜歡閱讀、烘焙與散步。</t>
+  </si>
+  <si>
+    <t>從事技術支援與系統維護工作，工作細心，講求效率。對各類新興科技有濃厚興趣。假日愛釣魚與露營，享受靜謐時光。</t>
+  </si>
+  <si>
+    <t>在媒體行銷領域耕耘多年，擁有豐富經驗與創意思維。熱愛表演藝術與音樂劇，性格積極正向，樂於分享與合作。</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>我是一位軟體工程師，擁有多年網頁前端開發經驗，擅長使用 HTML、CSS、JavaScript 及 React 等框架，對設計與使用者體驗特別講究。工作之外，我熱愛運動，尤其喜歡籃球與跑步，認為規律運動能提升專注力與抗壓性。我也喜歡動手組裝電腦與嘗試新科技產品，常關注 AI、區塊鏈等新興趨勢。朋友形容我是個冷靜又可靠的人，做事有條理、不輕易妥協，面對挑戰總能沉著應對。未來希望能結合自己的技術與創意，開發對社會有幫助的產品，創造更多價值。</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我是一位軟體工程師，擁有多年網頁前端開發經驗，擅長使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>等框架，對設計與使用者體驗特別講究。工作之外，我熱愛運動，認為規律運動能提升專注力與抗壓性。我也喜歡動手組裝電腦與嘗試新科技產品，常關注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、區塊鏈等新興趨勢。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +722,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,19 +775,19 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,31 +1070,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="138" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -854,1789 +1119,1947 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <f>IF('中文資料(修改用)'!A2="","",'中文資料(修改用)'!A2)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="2" t="str">
         <f>IF('中文資料(修改用)'!B2="","",'中文資料(修改用)'!B2)</f>
         <v>陳</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="2" t="str">
         <f>IF('中文資料(修改用)'!C2="","",'中文資料(修改用)'!C2)</f>
         <v>明偉</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="2" t="str">
         <f>IF('中文資料(修改用)'!D2="","",'中文資料(修改用)'!D2)</f>
         <v>mingwei</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="2" t="str">
         <f>IF('中文資料(修改用)'!E2="","",'中文資料(修改用)'!E2)</f>
         <v>mingwei@example.com</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="2" t="str">
         <f>IF('中文資料(修改用)'!F2="","",'中文資料(修改用)'!F2)</f>
+        <v>mingwei</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G2="","",'中文資料(修改用)'!G2)</f>
         <v>a1b2c3d4</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G2="","",'中文資料(修改用)'!G2)</f>
+      <c r="H2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H2="","",'中文資料(修改用)'!H2)</f>
         <v>098f6bcd4621d373cade</v>
       </c>
-      <c r="H2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H2="","",'中文資料(修改用)'!H2)</f>
+      <c r="I2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I2="","",'中文資料(修改用)'!I2)</f>
         <v>男</v>
       </c>
-      <c r="I2" s="3">
-        <f>IF('中文資料(修改用)'!I2="","",'中文資料(修改用)'!I2)</f>
+      <c r="J2" s="2">
+        <f>IF('中文資料(修改用)'!J2="","",'中文資料(修改用)'!J2)</f>
         <v>912345678</v>
       </c>
-      <c r="J2" s="3">
-        <f>IF('中文資料(修改用)'!J2="","",'中文資料(修改用)'!J2)</f>
+      <c r="K2" s="2">
+        <f>IF('中文資料(修改用)'!K2="","",'中文資料(修改用)'!K2)</f>
         <v>32874</v>
       </c>
-      <c r="K2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!K2="","",'中文資料(修改用)'!K2)</f>
+      <c r="L2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L2="","",'中文資料(修改用)'!L2)</f>
+        <v>熱愛科技與運動，喜歡研究新科技產品，尤其對人工智慧與區塊鏈特別感興趣。平時喜歡跑步與登山，追求身心健康的生活方式。</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M2="","",'中文資料(修改用)'!M2)</f>
         <v>台灣</v>
       </c>
-      <c r="L2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L2="","",'中文資料(修改用)'!L2)</f>
+      <c r="N2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N2="","",'中文資料(修改用)'!N2)</f>
+        <v>110台北市信義區忠孝東路五段123號5樓之3</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O2="","",'中文資料(修改用)'!O2)</f>
         <v>台北市</v>
       </c>
-      <c r="M2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M2="","",'中文資料(修改用)'!M2)</f>
+      <c r="P2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P2="","",'中文資料(修改用)'!P2)</f>
         <v>信義區</v>
       </c>
-      <c r="N2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N2="","",'中文資料(修改用)'!N2)</f>
+      <c r="Q2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q2="","",'中文資料(修改用)'!Q2)</f>
         <v>忠孝東路五段</v>
       </c>
-      <c r="O2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O2="","",'中文資料(修改用)'!O2)</f>
-        <v/>
-      </c>
-      <c r="P2" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P2="","",'中文資料(修改用)'!P2)</f>
+      <c r="R2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R2="","",'中文資料(修改用)'!R2)</f>
+        <v/>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S2="","",'中文資料(修改用)'!S2)</f>
         <v>123號5樓之3</v>
       </c>
-      <c r="Q2" s="3">
-        <f>IF('中文資料(修改用)'!Q2="","",'中文資料(修改用)'!Q2)</f>
+      <c r="T2" s="2">
+        <f>IF('中文資料(修改用)'!T2="","",'中文資料(修改用)'!T2)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <f>IF('中文資料(修改用)'!A3="","",'中文資料(修改用)'!A3)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="2" t="str">
         <f>IF('中文資料(修改用)'!B3="","",'中文資料(修改用)'!B3)</f>
         <v>王</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="2" t="str">
         <f>IF('中文資料(修改用)'!C3="","",'中文資料(修改用)'!C3)</f>
         <v>麗君</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="2" t="str">
         <f>IF('中文資料(修改用)'!D3="","",'中文資料(修改用)'!D3)</f>
         <v>lijun</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
         <f>IF('中文資料(修改用)'!E3="","",'中文資料(修改用)'!E3)</f>
         <v>lijun@example.com</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="2" t="str">
         <f>IF('中文資料(修改用)'!F3="","",'中文資料(修改用)'!F3)</f>
+        <v>lijun</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G3="","",'中文資料(修改用)'!G3)</f>
         <v>z9y8x7w6</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G3="","",'中文資料(修改用)'!G3)</f>
+      <c r="H3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H3="","",'中文資料(修改用)'!H3)</f>
         <v>5f4dcc3b5aa765d61d8</v>
       </c>
-      <c r="H3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H3="","",'中文資料(修改用)'!H3)</f>
+      <c r="I3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I3="","",'中文資料(修改用)'!I3)</f>
         <v>女</v>
       </c>
-      <c r="I3" s="3">
-        <f>IF('中文資料(修改用)'!I3="","",'中文資料(修改用)'!I3)</f>
+      <c r="J3" s="2">
+        <f>IF('中文資料(修改用)'!J3="","",'中文資料(修改用)'!J3)</f>
         <v>987654321</v>
       </c>
-      <c r="J3" s="3">
-        <f>IF('中文資料(修改用)'!J3="","",'中文資料(修改用)'!J3)</f>
+      <c r="K3" s="2">
+        <f>IF('中文資料(修改用)'!K3="","",'中文資料(修改用)'!K3)</f>
         <v>31213</v>
       </c>
-      <c r="K3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!K3="","",'中文資料(修改用)'!K3)</f>
+      <c r="L3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L3="","",'中文資料(修改用)'!L3)</f>
+        <v>個性活潑開朗，喜歡閱讀小說與寫作。在工作之餘常參加公益活動，希望透過行動為社會帶來正面影響，熱愛旅行與攝影。</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M3="","",'中文資料(修改用)'!M3)</f>
         <v>台灣</v>
       </c>
-      <c r="L3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L3="","",'中文資料(修改用)'!L3)</f>
+      <c r="N3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N3="","",'中文資料(修改用)'!N3)</f>
+        <v>406台中市北屯區崇德路二段120巷8弄56號3樓</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O3="","",'中文資料(修改用)'!O3)</f>
         <v>台中市</v>
       </c>
-      <c r="M3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M3="","",'中文資料(修改用)'!M3)</f>
+      <c r="P3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P3="","",'中文資料(修改用)'!P3)</f>
         <v>北屯區</v>
       </c>
-      <c r="N3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N3="","",'中文資料(修改用)'!N3)</f>
+      <c r="Q3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q3="","",'中文資料(修改用)'!Q3)</f>
         <v>崇德路二段</v>
       </c>
-      <c r="O3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O3="","",'中文資料(修改用)'!O3)</f>
+      <c r="R3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R3="","",'中文資料(修改用)'!R3)</f>
         <v>120巷8弄</v>
       </c>
-      <c r="P3" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P3="","",'中文資料(修改用)'!P3)</f>
+      <c r="S3" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S3="","",'中文資料(修改用)'!S3)</f>
         <v>56號3樓</v>
       </c>
-      <c r="Q3" s="3">
-        <f>IF('中文資料(修改用)'!Q3="","",'中文資料(修改用)'!Q3)</f>
+      <c r="T3" s="2">
+        <f>IF('中文資料(修改用)'!T3="","",'中文資料(修改用)'!T3)</f>
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f>IF('中文資料(修改用)'!A4="","",'中文資料(修改用)'!A4)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="2" t="str">
         <f>IF('中文資料(修改用)'!B4="","",'中文資料(修改用)'!B4)</f>
         <v>張</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="2" t="str">
         <f>IF('中文資料(修改用)'!C4="","",'中文資料(修改用)'!C4)</f>
         <v>偉翔</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="2" t="str">
         <f>IF('中文資料(修改用)'!D4="","",'中文資料(修改用)'!D4)</f>
         <v>weixiang</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="2" t="str">
         <f>IF('中文資料(修改用)'!E4="","",'中文資料(修改用)'!E4)</f>
         <v>weixiang@example.com</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="2" t="str">
         <f>IF('中文資料(修改用)'!F4="","",'中文資料(修改用)'!F4)</f>
+        <v>weixiang</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G4="","",'中文資料(修改用)'!G4)</f>
         <v>e4f5g6h7</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G4="","",'中文資料(修改用)'!G4)</f>
+      <c r="H4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H4="","",'中文資料(修改用)'!H4)</f>
         <v>6dcd4ce23d88e2ee956</v>
       </c>
-      <c r="H4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H4="","",'中文資料(修改用)'!H4)</f>
+      <c r="I4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I4="","",'中文資料(修改用)'!I4)</f>
         <v>男</v>
       </c>
-      <c r="I4" s="3">
-        <f>IF('中文資料(修改用)'!I4="","",'中文資料(修改用)'!I4)</f>
+      <c r="J4" s="2">
+        <f>IF('中文資料(修改用)'!J4="","",'中文資料(修改用)'!J4)</f>
         <v>922333444</v>
       </c>
-      <c r="J4" s="3">
-        <f>IF('中文資料(修改用)'!J4="","",'中文資料(修改用)'!J4)</f>
+      <c r="K4" s="2">
+        <f>IF('中文資料(修改用)'!K4="","",'中文資料(修改用)'!K4)</f>
         <v>33675</v>
       </c>
-      <c r="K4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!K4="","",'中文資料(修改用)'!K4)</f>
+      <c r="L4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M4="","",'中文資料(修改用)'!M4)</f>
         <v>台灣</v>
       </c>
-      <c r="L4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L4="","",'中文資料(修改用)'!L4)</f>
+      <c r="N4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N4="","",'中文資料(修改用)'!N4)</f>
+        <v>220新北市板橋區中山路一段5巷45號2樓</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O4="","",'中文資料(修改用)'!O4)</f>
         <v>新北市</v>
       </c>
-      <c r="M4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M4="","",'中文資料(修改用)'!M4)</f>
+      <c r="P4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P4="","",'中文資料(修改用)'!P4)</f>
         <v>板橋區</v>
       </c>
-      <c r="N4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N4="","",'中文資料(修改用)'!N4)</f>
+      <c r="Q4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q4="","",'中文資料(修改用)'!Q4)</f>
         <v>中山路一段</v>
       </c>
-      <c r="O4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O4="","",'中文資料(修改用)'!O4)</f>
+      <c r="R4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R4="","",'中文資料(修改用)'!R4)</f>
         <v>5巷</v>
       </c>
-      <c r="P4" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P4="","",'中文資料(修改用)'!P4)</f>
+      <c r="S4" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S4="","",'中文資料(修改用)'!S4)</f>
         <v>45號2樓</v>
       </c>
-      <c r="Q4" s="3">
-        <f>IF('中文資料(修改用)'!Q4="","",'中文資料(修改用)'!Q4)</f>
+      <c r="T4" s="2">
+        <f>IF('中文資料(修改用)'!T4="","",'中文資料(修改用)'!T4)</f>
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f>IF('中文資料(修改用)'!A5="","",'中文資料(修改用)'!A5)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="2" t="str">
         <f>IF('中文資料(修改用)'!B5="","",'中文資料(修改用)'!B5)</f>
         <v>劉</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="2" t="str">
         <f>IF('中文資料(修改用)'!C5="","",'中文資料(修改用)'!C5)</f>
         <v>婷萱</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="2" t="str">
         <f>IF('中文資料(修改用)'!D5="","",'中文資料(修改用)'!D5)</f>
         <v>tingxuan</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" s="2" t="str">
         <f>IF('中文資料(修改用)'!E5="","",'中文資料(修改用)'!E5)</f>
         <v>tingxuan@example.com</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="2" t="str">
         <f>IF('中文資料(修改用)'!F5="","",'中文資料(修改用)'!F5)</f>
+        <v>tingxuan</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G5="","",'中文資料(修改用)'!G5)</f>
         <v>h7j8k9l0</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G5="","",'中文資料(修改用)'!G5)</f>
+      <c r="H5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H5="","",'中文資料(修改用)'!H5)</f>
         <v>1f3870be274f6c49b3e</v>
       </c>
-      <c r="H5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H5="","",'中文資料(修改用)'!H5)</f>
+      <c r="I5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I5="","",'中文資料(修改用)'!I5)</f>
         <v>女</v>
       </c>
-      <c r="I5" s="3">
-        <f>IF('中文資料(修改用)'!I5="","",'中文資料(修改用)'!I5)</f>
+      <c r="J5" s="2">
+        <f>IF('中文資料(修改用)'!J5="","",'中文資料(修改用)'!J5)</f>
         <v>933444555</v>
       </c>
-      <c r="J5" s="3">
-        <f>IF('中文資料(修改用)'!J5="","",'中文資料(修改用)'!J5)</f>
-        <v>32470</v>
-      </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="2">
         <f>IF('中文資料(修改用)'!K5="","",'中文資料(修改用)'!K5)</f>
+        <v>32877</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L5="","",'中文資料(修改用)'!L5)</f>
+        <v>藝術愛好者，擅長繪畫與手作，喜歡參加市集與藝術展。平時喜歡與朋友聚會，是個溫柔體貼、善解人意的人。</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M5="","",'中文資料(修改用)'!M5)</f>
         <v>台灣</v>
       </c>
-      <c r="L5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L5="","",'中文資料(修改用)'!L5)</f>
+      <c r="N5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N5="","",'中文資料(修改用)'!N5)</f>
+        <v>807高雄市三民區建國路78號</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O5="","",'中文資料(修改用)'!O5)</f>
         <v>高雄市</v>
       </c>
-      <c r="M5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M5="","",'中文資料(修改用)'!M5)</f>
+      <c r="P5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P5="","",'中文資料(修改用)'!P5)</f>
         <v>三民區</v>
       </c>
-      <c r="N5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N5="","",'中文資料(修改用)'!N5)</f>
+      <c r="Q5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q5="","",'中文資料(修改用)'!Q5)</f>
         <v>建國路</v>
       </c>
-      <c r="O5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O5="","",'中文資料(修改用)'!O5)</f>
-        <v/>
-      </c>
-      <c r="P5" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P5="","",'中文資料(修改用)'!P5)</f>
+      <c r="R5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R5="","",'中文資料(修改用)'!R5)</f>
+        <v/>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S5="","",'中文資料(修改用)'!S5)</f>
         <v>78號</v>
       </c>
-      <c r="Q5" s="3">
-        <f>IF('中文資料(修改用)'!Q5="","",'中文資料(修改用)'!Q5)</f>
+      <c r="T5" s="2">
+        <f>IF('中文資料(修改用)'!T5="","",'中文資料(修改用)'!T5)</f>
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f>IF('中文資料(修改用)'!A6="","",'中文資料(修改用)'!A6)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="2" t="str">
         <f>IF('中文資料(修改用)'!B6="","",'中文資料(修改用)'!B6)</f>
         <v>蔡</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="2" t="str">
         <f>IF('中文資料(修改用)'!C6="","",'中文資料(修改用)'!C6)</f>
         <v>宏達</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="2" t="str">
         <f>IF('中文資料(修改用)'!D6="","",'中文資料(修改用)'!D6)</f>
         <v>hongda</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" s="2" t="str">
         <f>IF('中文資料(修改用)'!E6="","",'中文資料(修改用)'!E6)</f>
         <v>hongda@example.com</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <f>IF('中文資料(修改用)'!F6="","",'中文資料(修改用)'!F6)</f>
+        <v>hongda</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G6="","",'中文資料(修改用)'!G6)</f>
         <v>m1n2o3p4</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G6="","",'中文資料(修改用)'!G6)</f>
+      <c r="H6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H6="","",'中文資料(修改用)'!H6)</f>
         <v>9c1185a5c5e9fc546128</v>
       </c>
-      <c r="H6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H6="","",'中文資料(修改用)'!H6)</f>
+      <c r="I6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I6="","",'中文資料(修改用)'!I6)</f>
         <v>男</v>
       </c>
-      <c r="I6" s="3">
-        <f>IF('中文資料(修改用)'!I6="","",'中文資料(修改用)'!I6)</f>
+      <c r="J6" s="2">
+        <f>IF('中文資料(修改用)'!J6="","",'中文資料(修改用)'!J6)</f>
         <v>944555666</v>
       </c>
-      <c r="J6" s="3">
-        <f>IF('中文資料(修改用)'!J6="","",'中文資料(修改用)'!J6)</f>
-        <v>34910</v>
-      </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" s="2">
         <f>IF('中文資料(修改用)'!K6="","",'中文資料(修改用)'!K6)</f>
+        <v>32878</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L6="","",'中文資料(修改用)'!L6)</f>
+        <v>專精於資料分析與商業策略，對數字非常敏感，善於從資料中發掘商機。閒暇時熱愛下廚與閱讀歷史類書籍。</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M6="","",'中文資料(修改用)'!M6)</f>
         <v>台灣</v>
       </c>
-      <c r="L6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L6="","",'中文資料(修改用)'!L6)</f>
+      <c r="N6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N6="","",'中文資料(修改用)'!N6)</f>
+        <v>701台南市東區民權路3巷101號4樓</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O6="","",'中文資料(修改用)'!O6)</f>
         <v>台南市</v>
       </c>
-      <c r="M6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M6="","",'中文資料(修改用)'!M6)</f>
+      <c r="P6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P6="","",'中文資料(修改用)'!P6)</f>
         <v>東區</v>
       </c>
-      <c r="N6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N6="","",'中文資料(修改用)'!N6)</f>
+      <c r="Q6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q6="","",'中文資料(修改用)'!Q6)</f>
         <v>民權路</v>
       </c>
-      <c r="O6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O6="","",'中文資料(修改用)'!O6)</f>
+      <c r="R6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R6="","",'中文資料(修改用)'!R6)</f>
         <v>3巷</v>
       </c>
-      <c r="P6" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P6="","",'中文資料(修改用)'!P6)</f>
+      <c r="S6" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S6="","",'中文資料(修改用)'!S6)</f>
         <v>101號4樓</v>
       </c>
-      <c r="Q6" s="3">
-        <f>IF('中文資料(修改用)'!Q6="","",'中文資料(修改用)'!Q6)</f>
+      <c r="T6" s="2">
+        <f>IF('中文資料(修改用)'!T6="","",'中文資料(修改用)'!T6)</f>
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f>IF('中文資料(修改用)'!A7="","",'中文資料(修改用)'!A7)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
         <f>IF('中文資料(修改用)'!B7="","",'中文資料(修改用)'!B7)</f>
         <v>黃</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="2" t="str">
         <f>IF('中文資料(修改用)'!C7="","",'中文資料(修改用)'!C7)</f>
         <v>芬芳</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f>IF('中文資料(修改用)'!D7="","",'中文資料(修改用)'!D7)</f>
         <v>fenfang</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="2" t="str">
         <f>IF('中文資料(修改用)'!E7="","",'中文資料(修改用)'!E7)</f>
         <v>fenfang@example.com</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="2" t="str">
         <f>IF('中文資料(修改用)'!F7="","",'中文資料(修改用)'!F7)</f>
+        <v>fenfang</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G7="","",'中文資料(修改用)'!G7)</f>
         <v>q5r6s7t8</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G7="","",'中文資料(修改用)'!G7)</f>
+      <c r="H7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H7="","",'中文資料(修改用)'!H7)</f>
         <v>5d41402abc4b2a76b971</v>
       </c>
-      <c r="H7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H7="","",'中文資料(修改用)'!H7)</f>
+      <c r="I7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I7="","",'中文資料(修改用)'!I7)</f>
         <v>女</v>
       </c>
-      <c r="I7" s="3">
-        <f>IF('中文資料(修改用)'!I7="","",'中文資料(修改用)'!I7)</f>
+      <c r="J7" s="2">
+        <f>IF('中文資料(修改用)'!J7="","",'中文資料(修改用)'!J7)</f>
         <v>966777888</v>
       </c>
-      <c r="J7" s="3">
-        <f>IF('中文資料(修改用)'!J7="","",'中文資料(修改用)'!J7)</f>
-        <v>33498</v>
-      </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2">
         <f>IF('中文資料(修改用)'!K7="","",'中文資料(修改用)'!K7)</f>
+        <v>32879</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L7="","",'中文資料(修改用)'!L7)</f>
+        <v>從事教育工作多年，喜歡與孩子互動。相信教育能改變未來，擁有無限的耐心與熱忱。也喜歡園藝與音樂療癒生活。</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M7="","",'中文資料(修改用)'!M7)</f>
         <v>台灣</v>
       </c>
-      <c r="L7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L7="","",'中文資料(修改用)'!L7)</f>
+      <c r="N7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N7="","",'中文資料(修改用)'!N7)</f>
+        <v>330桃園市桃園區春日路32號</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O7="","",'中文資料(修改用)'!O7)</f>
         <v>桃園市</v>
       </c>
-      <c r="M7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M7="","",'中文資料(修改用)'!M7)</f>
+      <c r="P7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P7="","",'中文資料(修改用)'!P7)</f>
         <v>桃園區</v>
       </c>
-      <c r="N7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N7="","",'中文資料(修改用)'!N7)</f>
+      <c r="Q7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q7="","",'中文資料(修改用)'!Q7)</f>
         <v>春日路</v>
       </c>
-      <c r="O7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O7="","",'中文資料(修改用)'!O7)</f>
-        <v/>
-      </c>
-      <c r="P7" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P7="","",'中文資料(修改用)'!P7)</f>
+      <c r="R7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R7="","",'中文資料(修改用)'!R7)</f>
+        <v/>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S7="","",'中文資料(修改用)'!S7)</f>
         <v>32號</v>
       </c>
-      <c r="Q7" s="3">
-        <f>IF('中文資料(修改用)'!Q7="","",'中文資料(修改用)'!Q7)</f>
+      <c r="T7" s="2">
+        <f>IF('中文資料(修改用)'!T7="","",'中文資料(修改用)'!T7)</f>
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f>IF('中文資料(修改用)'!A8="","",'中文資料(修改用)'!A8)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
         <f>IF('中文資料(修改用)'!B8="","",'中文資料(修改用)'!B8)</f>
         <v>吳</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="2" t="str">
         <f>IF('中文資料(修改用)'!C8="","",'中文資料(修改用)'!C8)</f>
         <v>強豪</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="2" t="str">
         <f>IF('中文資料(修改用)'!D8="","",'中文資料(修改用)'!D8)</f>
         <v>qianghao</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="2" t="str">
         <f>IF('中文資料(修改用)'!E8="","",'中文資料(修改用)'!E8)</f>
         <v>qianghao@example.com</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="2" t="str">
         <f>IF('中文資料(修改用)'!F8="","",'中文資料(修改用)'!F8)</f>
+        <v>qianghao</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G8="","",'中文資料(修改用)'!G8)</f>
         <v>u9v0w1x2</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G8="","",'中文資料(修改用)'!G8)</f>
+      <c r="H8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H8="","",'中文資料(修改用)'!H8)</f>
         <v>7d793037a0760186574b</v>
       </c>
-      <c r="H8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H8="","",'中文資料(修改用)'!H8)</f>
+      <c r="I8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I8="","",'中文資料(修改用)'!I8)</f>
         <v>男</v>
       </c>
-      <c r="I8" s="3">
-        <f>IF('中文資料(修改用)'!I8="","",'中文資料(修改用)'!I8)</f>
+      <c r="J8" s="2">
+        <f>IF('中文資料(修改用)'!J8="","",'中文資料(修改用)'!J8)</f>
         <v>977888999</v>
       </c>
-      <c r="J8" s="3">
-        <f>IF('中文資料(修改用)'!J8="","",'中文資料(修改用)'!J8)</f>
-        <v>31902</v>
-      </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="2">
         <f>IF('中文資料(修改用)'!K8="","",'中文資料(修改用)'!K8)</f>
+        <v>32880</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L8="","",'中文資料(修改用)'!L8)</f>
+        <v>個性爽朗，從事行銷相關工作。熱愛挑戰，喜歡快速變化的生活節奏。假日常去騎單車，享受自然與自由。</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M8="","",'中文資料(修改用)'!M8)</f>
         <v>台灣</v>
       </c>
-      <c r="L8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L8="","",'中文資料(修改用)'!L8)</f>
+      <c r="N8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N8="","",'中文資料(修改用)'!N8)</f>
+        <v>300新竹市東區光復路1巷88號3樓</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O8="","",'中文資料(修改用)'!O8)</f>
         <v>新竹市</v>
       </c>
-      <c r="M8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M8="","",'中文資料(修改用)'!M8)</f>
+      <c r="P8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P8="","",'中文資料(修改用)'!P8)</f>
         <v>東區</v>
       </c>
-      <c r="N8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N8="","",'中文資料(修改用)'!N8)</f>
+      <c r="Q8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q8="","",'中文資料(修改用)'!Q8)</f>
         <v>光復路</v>
       </c>
-      <c r="O8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O8="","",'中文資料(修改用)'!O8)</f>
+      <c r="R8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R8="","",'中文資料(修改用)'!R8)</f>
         <v>1巷</v>
       </c>
-      <c r="P8" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P8="","",'中文資料(修改用)'!P8)</f>
+      <c r="S8" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S8="","",'中文資料(修改用)'!S8)</f>
         <v>88號3樓</v>
       </c>
-      <c r="Q8" s="3">
-        <f>IF('中文資料(修改用)'!Q8="","",'中文資料(修改用)'!Q8)</f>
+      <c r="T8" s="2">
+        <f>IF('中文資料(修改用)'!T8="","",'中文資料(修改用)'!T8)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f>IF('中文資料(修改用)'!A9="","",'中文資料(修改用)'!A9)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="2" t="str">
         <f>IF('中文資料(修改用)'!B9="","",'中文資料(修改用)'!B9)</f>
         <v>林</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="2" t="str">
         <f>IF('中文資料(修改用)'!C9="","",'中文資料(修改用)'!C9)</f>
         <v>雪梅</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="2" t="str">
         <f>IF('中文資料(修改用)'!D9="","",'中文資料(修改用)'!D9)</f>
         <v>xuemei</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="2" t="str">
         <f>IF('中文資料(修改用)'!E9="","",'中文資料(修改用)'!E9)</f>
         <v>xuemei@example.com</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="2" t="str">
         <f>IF('中文資料(修改用)'!F9="","",'中文資料(修改用)'!F9)</f>
+        <v>xuemei</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G9="","",'中文資料(修改用)'!G9)</f>
         <v>y3z4a5b6</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G9="","",'中文資料(修改用)'!G9)</f>
+      <c r="H9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H9="","",'中文資料(修改用)'!H9)</f>
         <v>9ae0ea9e3c9c6e1b9b36</v>
       </c>
-      <c r="H9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H9="","",'中文資料(修改用)'!H9)</f>
+      <c r="I9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I9="","",'中文資料(修改用)'!I9)</f>
         <v>女</v>
       </c>
-      <c r="I9" s="3">
-        <f>IF('中文資料(修改用)'!I9="","",'中文資料(修改用)'!I9)</f>
+      <c r="J9" s="2">
+        <f>IF('中文資料(修改用)'!J9="","",'中文資料(修改用)'!J9)</f>
         <v>911222333</v>
       </c>
-      <c r="J9" s="3">
-        <f>IF('中文資料(修改用)'!J9="","",'中文資料(修改用)'!J9)</f>
-        <v>34311</v>
-      </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="2">
         <f>IF('中文資料(修改用)'!K9="","",'中文資料(修改用)'!K9)</f>
+        <v>32881</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L9="","",'中文資料(修改用)'!L9)</f>
+        <v>個性溫和，喜歡簡單樸實的生活。擁有會計背景，對數字與細節特別敏感。閒暇喜歡閱讀、烘焙與散步。</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M9="","",'中文資料(修改用)'!M9)</f>
         <v>台灣</v>
       </c>
-      <c r="L9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L9="","",'中文資料(修改用)'!L9)</f>
+      <c r="N9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N9="","",'中文資料(修改用)'!N9)</f>
+        <v>600嘉義市西區中正路56號</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O9="","",'中文資料(修改用)'!O9)</f>
         <v>嘉義市</v>
       </c>
-      <c r="M9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M9="","",'中文資料(修改用)'!M9)</f>
+      <c r="P9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P9="","",'中文資料(修改用)'!P9)</f>
         <v>西區</v>
       </c>
-      <c r="N9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N9="","",'中文資料(修改用)'!N9)</f>
+      <c r="Q9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q9="","",'中文資料(修改用)'!Q9)</f>
         <v>中正路</v>
       </c>
-      <c r="O9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O9="","",'中文資料(修改用)'!O9)</f>
-        <v/>
-      </c>
-      <c r="P9" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P9="","",'中文資料(修改用)'!P9)</f>
+      <c r="R9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R9="","",'中文資料(修改用)'!R9)</f>
+        <v/>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S9="","",'中文資料(修改用)'!S9)</f>
         <v>56號</v>
       </c>
-      <c r="Q9" s="3">
-        <f>IF('中文資料(修改用)'!Q9="","",'中文資料(修改用)'!Q9)</f>
+      <c r="T9" s="2">
+        <f>IF('中文資料(修改用)'!T9="","",'中文資料(修改用)'!T9)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f>IF('中文資料(修改用)'!A10="","",'中文資料(修改用)'!A10)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="2" t="str">
         <f>IF('中文資料(修改用)'!B10="","",'中文資料(修改用)'!B10)</f>
         <v>鄭</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="2" t="str">
         <f>IF('中文資料(修改用)'!C10="","",'中文資料(修改用)'!C10)</f>
         <v>志明</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="2" t="str">
         <f>IF('中文資料(修改用)'!D10="","",'中文資料(修改用)'!D10)</f>
         <v>zhiming</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="2" t="str">
         <f>IF('中文資料(修改用)'!E10="","",'中文資料(修改用)'!E10)</f>
         <v>zhiming@example.com</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="2" t="str">
         <f>IF('中文資料(修改用)'!F10="","",'中文資料(修改用)'!F10)</f>
+        <v>zhiming</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G10="","",'中文資料(修改用)'!G10)</f>
         <v>c7d8e9f0</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G10="","",'中文資料(修改用)'!G10)</f>
+      <c r="H10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H10="","",'中文資料(修改用)'!H10)</f>
         <v>c4ca4238a0b923820dcc</v>
       </c>
-      <c r="H10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H10="","",'中文資料(修改用)'!H10)</f>
+      <c r="I10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I10="","",'中文資料(修改用)'!I10)</f>
         <v>男</v>
       </c>
-      <c r="I10" s="3">
-        <f>IF('中文資料(修改用)'!I10="","",'中文資料(修改用)'!I10)</f>
+      <c r="J10" s="2">
+        <f>IF('中文資料(修改用)'!J10="","",'中文資料(修改用)'!J10)</f>
         <v>988999000</v>
       </c>
-      <c r="J10" s="3">
-        <f>IF('中文資料(修改用)'!J10="","",'中文資料(修改用)'!J10)</f>
-        <v>31457</v>
-      </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="2">
         <f>IF('中文資料(修改用)'!K10="","",'中文資料(修改用)'!K10)</f>
+        <v>32882</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L10="","",'中文資料(修改用)'!L10)</f>
+        <v>從事技術支援與系統維護工作，工作細心，講求效率。對各類新興科技有濃厚興趣。假日愛釣魚與露營，享受靜謐時光。</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M10="","",'中文資料(修改用)'!M10)</f>
         <v>台灣</v>
       </c>
-      <c r="L10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L10="","",'中文資料(修改用)'!L10)</f>
+      <c r="N10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N10="","",'中文資料(修改用)'!N10)</f>
+        <v>500彰化縣彰化市中山路12巷77號2樓</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O10="","",'中文資料(修改用)'!O10)</f>
         <v>彰化縣</v>
       </c>
-      <c r="M10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M10="","",'中文資料(修改用)'!M10)</f>
+      <c r="P10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P10="","",'中文資料(修改用)'!P10)</f>
         <v>彰化市</v>
       </c>
-      <c r="N10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N10="","",'中文資料(修改用)'!N10)</f>
+      <c r="Q10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q10="","",'中文資料(修改用)'!Q10)</f>
         <v>中山路</v>
       </c>
-      <c r="O10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O10="","",'中文資料(修改用)'!O10)</f>
+      <c r="R10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R10="","",'中文資料(修改用)'!R10)</f>
         <v>12巷</v>
       </c>
-      <c r="P10" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P10="","",'中文資料(修改用)'!P10)</f>
+      <c r="S10" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S10="","",'中文資料(修改用)'!S10)</f>
         <v>77號2樓</v>
       </c>
-      <c r="Q10" s="3">
-        <f>IF('中文資料(修改用)'!Q10="","",'中文資料(修改用)'!Q10)</f>
+      <c r="T10" s="2">
+        <f>IF('中文資料(修改用)'!T10="","",'中文資料(修改用)'!T10)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f>IF('中文資料(修改用)'!A11="","",'中文資料(修改用)'!A11)</f>
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <f>IF('中文資料(修改用)'!B11="","",'中文資料(修改用)'!B11)</f>
         <v>陳</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>IF('中文資料(修改用)'!C11="","",'中文資料(修改用)'!C11)</f>
         <v>琳妍</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f>IF('中文資料(修改用)'!D11="","",'中文資料(修改用)'!D11)</f>
         <v>linyan</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="2" t="str">
         <f>IF('中文資料(修改用)'!E11="","",'中文資料(修改用)'!E11)</f>
         <v>linyan@example.com</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="2" t="str">
         <f>IF('中文資料(修改用)'!F11="","",'中文資料(修改用)'!F11)</f>
+        <v>linyan</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!G11="","",'中文資料(修改用)'!G11)</f>
         <v>g1h2i3j4</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!G11="","",'中文資料(修改用)'!G11)</f>
+      <c r="H11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!H11="","",'中文資料(修改用)'!H11)</f>
         <v>c81e728d9d4c2f636f06</v>
       </c>
-      <c r="H11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!H11="","",'中文資料(修改用)'!H11)</f>
+      <c r="I11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!I11="","",'中文資料(修改用)'!I11)</f>
         <v>女</v>
       </c>
-      <c r="I11" s="3">
-        <f>IF('中文資料(修改用)'!I11="","",'中文資料(修改用)'!I11)</f>
+      <c r="J11" s="2">
+        <f>IF('中文資料(修改用)'!J11="","",'中文資料(修改用)'!J11)</f>
         <v>955333777</v>
       </c>
-      <c r="J11" s="3">
-        <f>IF('中文資料(修改用)'!J11="","",'中文資料(修改用)'!J11)</f>
-        <v>34444</v>
-      </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="2">
         <f>IF('中文資料(修改用)'!K11="","",'中文資料(修改用)'!K11)</f>
+        <v>32883</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!L11="","",'中文資料(修改用)'!L11)</f>
+        <v>在媒體行銷領域耕耘多年，擁有豐富經驗與創意思維。熱愛表演藝術與音樂劇，性格積極正向，樂於分享與合作。</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!M11="","",'中文資料(修改用)'!M11)</f>
         <v>台灣</v>
       </c>
-      <c r="L11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L11="","",'中文資料(修改用)'!L11)</f>
+      <c r="N11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!N11="","",'中文資料(修改用)'!N11)</f>
+        <v>265宜蘭縣羅東鎮興東路18號</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!O11="","",'中文資料(修改用)'!O11)</f>
         <v>宜蘭縣</v>
       </c>
-      <c r="M11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!M11="","",'中文資料(修改用)'!M11)</f>
+      <c r="P11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!P11="","",'中文資料(修改用)'!P11)</f>
         <v>羅東鎮</v>
       </c>
-      <c r="N11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N11="","",'中文資料(修改用)'!N11)</f>
+      <c r="Q11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!Q11="","",'中文資料(修改用)'!Q11)</f>
         <v>興東路</v>
       </c>
-      <c r="O11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!O11="","",'中文資料(修改用)'!O11)</f>
-        <v/>
-      </c>
-      <c r="P11" s="3" t="str">
-        <f>IF('中文資料(修改用)'!P11="","",'中文資料(修改用)'!P11)</f>
+      <c r="R11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R11="","",'中文資料(修改用)'!R11)</f>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S11="","",'中文資料(修改用)'!S11)</f>
         <v>18號</v>
       </c>
-      <c r="Q11" s="3">
-        <f>IF('中文資料(修改用)'!Q11="","",'中文資料(修改用)'!Q11)</f>
+      <c r="T11" s="2">
+        <f>IF('中文資料(修改用)'!T11="","",'中文資料(修改用)'!T11)</f>
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
         <f>IF('中文資料(修改用)'!A12="","",'中文資料(修改用)'!A12)</f>
         <v/>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="2" t="str">
         <f>IF('中文資料(修改用)'!B12="","",'中文資料(修改用)'!B12)</f>
         <v/>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <f>IF('中文資料(修改用)'!C12="","",'中文資料(修改用)'!C12)</f>
         <v/>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="2" t="str">
         <f>IF('中文資料(修改用)'!D12="","",'中文資料(修改用)'!D12)</f>
         <v/>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="str">
         <f>IF('中文資料(修改用)'!E12="","",'中文資料(修改用)'!E12)</f>
         <v/>
       </c>
-      <c r="F12" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F12="","",'中文資料(修改用)'!F12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="2" t="str">
         <f>IF('中文資料(修改用)'!G12="","",'中文資料(修改用)'!G12)</f>
         <v/>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="2" t="str">
         <f>IF('中文資料(修改用)'!H12="","",'中文資料(修改用)'!H12)</f>
         <v/>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="2" t="str">
         <f>IF('中文資料(修改用)'!I12="","",'中文資料(修改用)'!I12)</f>
         <v/>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="J12" s="2" t="str">
         <f>IF('中文資料(修改用)'!J12="","",'中文資料(修改用)'!J12)</f>
         <v/>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="K12" s="2" t="str">
         <f>IF('中文資料(修改用)'!K12="","",'中文資料(修改用)'!K12)</f>
         <v/>
       </c>
-      <c r="L12" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L12="","",'中文資料(修改用)'!L12)</f>
-        <v/>
-      </c>
-      <c r="M12" s="3" t="str">
+      <c r="L12" s="2" t="str">
         <f>IF('中文資料(修改用)'!M12="","",'中文資料(修改用)'!M12)</f>
         <v/>
       </c>
-      <c r="N12" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N12="","",'中文資料(修改用)'!N12)</f>
-        <v/>
-      </c>
-      <c r="O12" s="3" t="str">
+      <c r="M12" s="2" t="str">
         <f>IF('中文資料(修改用)'!O12="","",'中文資料(修改用)'!O12)</f>
         <v/>
       </c>
-      <c r="P12" s="3" t="str">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="str">
         <f>IF('中文資料(修改用)'!P12="","",'中文資料(修改用)'!P12)</f>
         <v/>
       </c>
-      <c r="Q12" s="3" t="str">
+      <c r="P12" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q12="","",'中文資料(修改用)'!Q12)</f>
         <v/>
       </c>
+      <c r="Q12" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R12="","",'中文資料(修改用)'!R12)</f>
+        <v/>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S12="","",'中文資料(修改用)'!S12)</f>
+        <v/>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T12="","",'中文資料(修改用)'!T12)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
         <f>IF('中文資料(修改用)'!A13="","",'中文資料(修改用)'!A13)</f>
         <v/>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
         <f>IF('中文資料(修改用)'!B13="","",'中文資料(修改用)'!B13)</f>
         <v/>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>IF('中文資料(修改用)'!C13="","",'中文資料(修改用)'!C13)</f>
         <v/>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="2" t="str">
         <f>IF('中文資料(修改用)'!D13="","",'中文資料(修改用)'!D13)</f>
         <v/>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="str">
         <f>IF('中文資料(修改用)'!E13="","",'中文資料(修改用)'!E13)</f>
         <v/>
       </c>
-      <c r="F13" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F13="","",'中文資料(修改用)'!F13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>IF('中文資料(修改用)'!G13="","",'中文資料(修改用)'!G13)</f>
         <v/>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>IF('中文資料(修改用)'!H13="","",'中文資料(修改用)'!H13)</f>
         <v/>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>IF('中文資料(修改用)'!I13="","",'中文資料(修改用)'!I13)</f>
         <v/>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>IF('中文資料(修改用)'!J13="","",'中文資料(修改用)'!J13)</f>
         <v/>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>IF('中文資料(修改用)'!K13="","",'中文資料(修改用)'!K13)</f>
         <v/>
       </c>
-      <c r="L13" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L13="","",'中文資料(修改用)'!L13)</f>
-        <v/>
-      </c>
-      <c r="M13" s="3" t="str">
+      <c r="L13" s="2" t="str">
         <f>IF('中文資料(修改用)'!M13="","",'中文資料(修改用)'!M13)</f>
         <v/>
       </c>
-      <c r="N13" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N13="","",'中文資料(修改用)'!N13)</f>
-        <v/>
-      </c>
-      <c r="O13" s="3" t="str">
+      <c r="M13" s="2" t="str">
         <f>IF('中文資料(修改用)'!O13="","",'中文資料(修改用)'!O13)</f>
         <v/>
       </c>
-      <c r="P13" s="3" t="str">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="str">
         <f>IF('中文資料(修改用)'!P13="","",'中文資料(修改用)'!P13)</f>
         <v/>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="P13" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q13="","",'中文資料(修改用)'!Q13)</f>
         <v/>
       </c>
+      <c r="Q13" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R13="","",'中文資料(修改用)'!R13)</f>
+        <v/>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S13="","",'中文資料(修改用)'!S13)</f>
+        <v/>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T13="","",'中文資料(修改用)'!T13)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
         <f>IF('中文資料(修改用)'!A14="","",'中文資料(修改用)'!A14)</f>
         <v/>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="2" t="str">
         <f>IF('中文資料(修改用)'!B14="","",'中文資料(修改用)'!B14)</f>
         <v/>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f>IF('中文資料(修改用)'!C14="","",'中文資料(修改用)'!C14)</f>
         <v/>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="2" t="str">
         <f>IF('中文資料(修改用)'!D14="","",'中文資料(修改用)'!D14)</f>
         <v/>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="str">
         <f>IF('中文資料(修改用)'!E14="","",'中文資料(修改用)'!E14)</f>
         <v/>
       </c>
-      <c r="F14" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F14="","",'中文資料(修改用)'!F14)</f>
-        <v/>
-      </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="2" t="str">
         <f>IF('中文資料(修改用)'!G14="","",'中文資料(修改用)'!G14)</f>
         <v/>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" s="2" t="str">
         <f>IF('中文資料(修改用)'!H14="","",'中文資料(修改用)'!H14)</f>
         <v/>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="2" t="str">
         <f>IF('中文資料(修改用)'!I14="","",'中文資料(修改用)'!I14)</f>
         <v/>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="J14" s="2" t="str">
         <f>IF('中文資料(修改用)'!J14="","",'中文資料(修改用)'!J14)</f>
         <v/>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="K14" s="2" t="str">
         <f>IF('中文資料(修改用)'!K14="","",'中文資料(修改用)'!K14)</f>
         <v/>
       </c>
-      <c r="L14" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L14="","",'中文資料(修改用)'!L14)</f>
-        <v/>
-      </c>
-      <c r="M14" s="3" t="str">
+      <c r="L14" s="2" t="str">
         <f>IF('中文資料(修改用)'!M14="","",'中文資料(修改用)'!M14)</f>
         <v/>
       </c>
-      <c r="N14" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N14="","",'中文資料(修改用)'!N14)</f>
-        <v/>
-      </c>
-      <c r="O14" s="3" t="str">
+      <c r="M14" s="2" t="str">
         <f>IF('中文資料(修改用)'!O14="","",'中文資料(修改用)'!O14)</f>
         <v/>
       </c>
-      <c r="P14" s="3" t="str">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="str">
         <f>IF('中文資料(修改用)'!P14="","",'中文資料(修改用)'!P14)</f>
         <v/>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="P14" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q14="","",'中文資料(修改用)'!Q14)</f>
         <v/>
       </c>
+      <c r="Q14" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R14="","",'中文資料(修改用)'!R14)</f>
+        <v/>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S14="","",'中文資料(修改用)'!S14)</f>
+        <v/>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T14="","",'中文資料(修改用)'!T14)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
         <f>IF('中文資料(修改用)'!A15="","",'中文資料(修改用)'!A15)</f>
         <v/>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="2" t="str">
         <f>IF('中文資料(修改用)'!B15="","",'中文資料(修改用)'!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f>IF('中文資料(修改用)'!C15="","",'中文資料(修改用)'!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="2" t="str">
         <f>IF('中文資料(修改用)'!D15="","",'中文資料(修改用)'!D15)</f>
         <v/>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="str">
         <f>IF('中文資料(修改用)'!E15="","",'中文資料(修改用)'!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F15="","",'中文資料(修改用)'!F15)</f>
-        <v/>
-      </c>
-      <c r="G15" s="3" t="str">
+      <c r="G15" s="2" t="str">
         <f>IF('中文資料(修改用)'!G15="","",'中文資料(修改用)'!G15)</f>
         <v/>
       </c>
-      <c r="H15" s="3" t="str">
+      <c r="H15" s="2" t="str">
         <f>IF('中文資料(修改用)'!H15="","",'中文資料(修改用)'!H15)</f>
         <v/>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" s="2" t="str">
         <f>IF('中文資料(修改用)'!I15="","",'中文資料(修改用)'!I15)</f>
         <v/>
       </c>
-      <c r="J15" s="3" t="str">
+      <c r="J15" s="2" t="str">
         <f>IF('中文資料(修改用)'!J15="","",'中文資料(修改用)'!J15)</f>
         <v/>
       </c>
-      <c r="K15" s="3" t="str">
+      <c r="K15" s="2" t="str">
         <f>IF('中文資料(修改用)'!K15="","",'中文資料(修改用)'!K15)</f>
         <v/>
       </c>
-      <c r="L15" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L15="","",'中文資料(修改用)'!L15)</f>
-        <v/>
-      </c>
-      <c r="M15" s="3" t="str">
+      <c r="L15" s="2" t="str">
         <f>IF('中文資料(修改用)'!M15="","",'中文資料(修改用)'!M15)</f>
         <v/>
       </c>
-      <c r="N15" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N15="","",'中文資料(修改用)'!N15)</f>
-        <v/>
-      </c>
-      <c r="O15" s="3" t="str">
+      <c r="M15" s="2" t="str">
         <f>IF('中文資料(修改用)'!O15="","",'中文資料(修改用)'!O15)</f>
         <v/>
       </c>
-      <c r="P15" s="3" t="str">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="str">
         <f>IF('中文資料(修改用)'!P15="","",'中文資料(修改用)'!P15)</f>
         <v/>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="P15" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q15="","",'中文資料(修改用)'!Q15)</f>
         <v/>
       </c>
+      <c r="Q15" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R15="","",'中文資料(修改用)'!R15)</f>
+        <v/>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S15="","",'中文資料(修改用)'!S15)</f>
+        <v/>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T15="","",'中文資料(修改用)'!T15)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="str">
         <f>IF('中文資料(修改用)'!A16="","",'中文資料(修改用)'!A16)</f>
         <v/>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="2" t="str">
         <f>IF('中文資料(修改用)'!B16="","",'中文資料(修改用)'!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="2" t="str">
         <f>IF('中文資料(修改用)'!C16="","",'中文資料(修改用)'!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="2" t="str">
         <f>IF('中文資料(修改用)'!D16="","",'中文資料(修改用)'!D16)</f>
         <v/>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="str">
         <f>IF('中文資料(修改用)'!E16="","",'中文資料(修改用)'!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F16="","",'中文資料(修改用)'!F16)</f>
-        <v/>
-      </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="2" t="str">
         <f>IF('中文資料(修改用)'!G16="","",'中文資料(修改用)'!G16)</f>
         <v/>
       </c>
-      <c r="H16" s="3" t="str">
+      <c r="H16" s="2" t="str">
         <f>IF('中文資料(修改用)'!H16="","",'中文資料(修改用)'!H16)</f>
         <v/>
       </c>
-      <c r="I16" s="3" t="str">
+      <c r="I16" s="2" t="str">
         <f>IF('中文資料(修改用)'!I16="","",'中文資料(修改用)'!I16)</f>
         <v/>
       </c>
-      <c r="J16" s="3" t="str">
+      <c r="J16" s="2" t="str">
         <f>IF('中文資料(修改用)'!J16="","",'中文資料(修改用)'!J16)</f>
         <v/>
       </c>
-      <c r="K16" s="3" t="str">
+      <c r="K16" s="2" t="str">
         <f>IF('中文資料(修改用)'!K16="","",'中文資料(修改用)'!K16)</f>
         <v/>
       </c>
-      <c r="L16" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L16="","",'中文資料(修改用)'!L16)</f>
-        <v/>
-      </c>
-      <c r="M16" s="3" t="str">
+      <c r="L16" s="2" t="str">
         <f>IF('中文資料(修改用)'!M16="","",'中文資料(修改用)'!M16)</f>
         <v/>
       </c>
-      <c r="N16" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N16="","",'中文資料(修改用)'!N16)</f>
-        <v/>
-      </c>
-      <c r="O16" s="3" t="str">
+      <c r="M16" s="2" t="str">
         <f>IF('中文資料(修改用)'!O16="","",'中文資料(修改用)'!O16)</f>
         <v/>
       </c>
-      <c r="P16" s="3" t="str">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="str">
         <f>IF('中文資料(修改用)'!P16="","",'中文資料(修改用)'!P16)</f>
         <v/>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="P16" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q16="","",'中文資料(修改用)'!Q16)</f>
         <v/>
       </c>
+      <c r="Q16" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R16="","",'中文資料(修改用)'!R16)</f>
+        <v/>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S16="","",'中文資料(修改用)'!S16)</f>
+        <v/>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T16="","",'中文資料(修改用)'!T16)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
         <f>IF('中文資料(修改用)'!A17="","",'中文資料(修改用)'!A17)</f>
         <v/>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="2" t="str">
         <f>IF('中文資料(修改用)'!B17="","",'中文資料(修改用)'!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="2" t="str">
         <f>IF('中文資料(修改用)'!C17="","",'中文資料(修改用)'!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="2" t="str">
         <f>IF('中文資料(修改用)'!D17="","",'中文資料(修改用)'!D17)</f>
         <v/>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="str">
         <f>IF('中文資料(修改用)'!E17="","",'中文資料(修改用)'!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F17="","",'中文資料(修改用)'!F17)</f>
-        <v/>
-      </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="2" t="str">
         <f>IF('中文資料(修改用)'!G17="","",'中文資料(修改用)'!G17)</f>
         <v/>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="2" t="str">
         <f>IF('中文資料(修改用)'!H17="","",'中文資料(修改用)'!H17)</f>
         <v/>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" s="2" t="str">
         <f>IF('中文資料(修改用)'!I17="","",'中文資料(修改用)'!I17)</f>
         <v/>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="J17" s="2" t="str">
         <f>IF('中文資料(修改用)'!J17="","",'中文資料(修改用)'!J17)</f>
         <v/>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="K17" s="2" t="str">
         <f>IF('中文資料(修改用)'!K17="","",'中文資料(修改用)'!K17)</f>
         <v/>
       </c>
-      <c r="L17" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L17="","",'中文資料(修改用)'!L17)</f>
-        <v/>
-      </c>
-      <c r="M17" s="3" t="str">
+      <c r="L17" s="2" t="str">
         <f>IF('中文資料(修改用)'!M17="","",'中文資料(修改用)'!M17)</f>
         <v/>
       </c>
-      <c r="N17" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N17="","",'中文資料(修改用)'!N17)</f>
-        <v/>
-      </c>
-      <c r="O17" s="3" t="str">
+      <c r="M17" s="2" t="str">
         <f>IF('中文資料(修改用)'!O17="","",'中文資料(修改用)'!O17)</f>
         <v/>
       </c>
-      <c r="P17" s="3" t="str">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="str">
         <f>IF('中文資料(修改用)'!P17="","",'中文資料(修改用)'!P17)</f>
         <v/>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="P17" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q17="","",'中文資料(修改用)'!Q17)</f>
         <v/>
       </c>
+      <c r="Q17" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R17="","",'中文資料(修改用)'!R17)</f>
+        <v/>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S17="","",'中文資料(修改用)'!S17)</f>
+        <v/>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T17="","",'中文資料(修改用)'!T17)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
         <f>IF('中文資料(修改用)'!A18="","",'中文資料(修改用)'!A18)</f>
         <v/>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="2" t="str">
         <f>IF('中文資料(修改用)'!B18="","",'中文資料(修改用)'!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <f>IF('中文資料(修改用)'!C18="","",'中文資料(修改用)'!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="2" t="str">
         <f>IF('中文資料(修改用)'!D18="","",'中文資料(修改用)'!D18)</f>
         <v/>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="str">
         <f>IF('中文資料(修改用)'!E18="","",'中文資料(修改用)'!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F18="","",'中文資料(修改用)'!F18)</f>
-        <v/>
-      </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="2" t="str">
         <f>IF('中文資料(修改用)'!G18="","",'中文資料(修改用)'!G18)</f>
         <v/>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="2" t="str">
         <f>IF('中文資料(修改用)'!H18="","",'中文資料(修改用)'!H18)</f>
         <v/>
       </c>
-      <c r="I18" s="3" t="str">
+      <c r="I18" s="2" t="str">
         <f>IF('中文資料(修改用)'!I18="","",'中文資料(修改用)'!I18)</f>
         <v/>
       </c>
-      <c r="J18" s="3" t="str">
+      <c r="J18" s="2" t="str">
         <f>IF('中文資料(修改用)'!J18="","",'中文資料(修改用)'!J18)</f>
         <v/>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="K18" s="2" t="str">
         <f>IF('中文資料(修改用)'!K18="","",'中文資料(修改用)'!K18)</f>
         <v/>
       </c>
-      <c r="L18" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L18="","",'中文資料(修改用)'!L18)</f>
-        <v/>
-      </c>
-      <c r="M18" s="3" t="str">
+      <c r="L18" s="2" t="str">
         <f>IF('中文資料(修改用)'!M18="","",'中文資料(修改用)'!M18)</f>
         <v/>
       </c>
-      <c r="N18" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N18="","",'中文資料(修改用)'!N18)</f>
-        <v/>
-      </c>
-      <c r="O18" s="3" t="str">
+      <c r="M18" s="2" t="str">
         <f>IF('中文資料(修改用)'!O18="","",'中文資料(修改用)'!O18)</f>
         <v/>
       </c>
-      <c r="P18" s="3" t="str">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="str">
         <f>IF('中文資料(修改用)'!P18="","",'中文資料(修改用)'!P18)</f>
         <v/>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="P18" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q18="","",'中文資料(修改用)'!Q18)</f>
         <v/>
       </c>
+      <c r="Q18" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R18="","",'中文資料(修改用)'!R18)</f>
+        <v/>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S18="","",'中文資料(修改用)'!S18)</f>
+        <v/>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T18="","",'中文資料(修改用)'!T18)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
         <f>IF('中文資料(修改用)'!A19="","",'中文資料(修改用)'!A19)</f>
         <v/>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="2" t="str">
         <f>IF('中文資料(修改用)'!B19="","",'中文資料(修改用)'!B19)</f>
         <v/>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>IF('中文資料(修改用)'!C19="","",'中文資料(修改用)'!C19)</f>
         <v/>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="2" t="str">
         <f>IF('中文資料(修改用)'!D19="","",'中文資料(修改用)'!D19)</f>
         <v/>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="str">
         <f>IF('中文資料(修改用)'!E19="","",'中文資料(修改用)'!E19)</f>
         <v/>
       </c>
-      <c r="F19" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F19="","",'中文資料(修改用)'!F19)</f>
-        <v/>
-      </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="2" t="str">
         <f>IF('中文資料(修改用)'!G19="","",'中文資料(修改用)'!G19)</f>
         <v/>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="2" t="str">
         <f>IF('中文資料(修改用)'!H19="","",'中文資料(修改用)'!H19)</f>
         <v/>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" s="2" t="str">
         <f>IF('中文資料(修改用)'!I19="","",'中文資料(修改用)'!I19)</f>
         <v/>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="J19" s="2" t="str">
         <f>IF('中文資料(修改用)'!J19="","",'中文資料(修改用)'!J19)</f>
         <v/>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="K19" s="2" t="str">
         <f>IF('中文資料(修改用)'!K19="","",'中文資料(修改用)'!K19)</f>
         <v/>
       </c>
-      <c r="L19" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L19="","",'中文資料(修改用)'!L19)</f>
-        <v/>
-      </c>
-      <c r="M19" s="3" t="str">
+      <c r="L19" s="2" t="str">
         <f>IF('中文資料(修改用)'!M19="","",'中文資料(修改用)'!M19)</f>
         <v/>
       </c>
-      <c r="N19" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N19="","",'中文資料(修改用)'!N19)</f>
-        <v/>
-      </c>
-      <c r="O19" s="3" t="str">
+      <c r="M19" s="2" t="str">
         <f>IF('中文資料(修改用)'!O19="","",'中文資料(修改用)'!O19)</f>
         <v/>
       </c>
-      <c r="P19" s="3" t="str">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="str">
         <f>IF('中文資料(修改用)'!P19="","",'中文資料(修改用)'!P19)</f>
         <v/>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="P19" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q19="","",'中文資料(修改用)'!Q19)</f>
         <v/>
       </c>
+      <c r="Q19" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R19="","",'中文資料(修改用)'!R19)</f>
+        <v/>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S19="","",'中文資料(修改用)'!S19)</f>
+        <v/>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T19="","",'中文資料(修改用)'!T19)</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
         <f>IF('中文資料(修改用)'!A20="","",'中文資料(修改用)'!A20)</f>
         <v/>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="2" t="str">
         <f>IF('中文資料(修改用)'!B20="","",'中文資料(修改用)'!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="2" t="str">
         <f>IF('中文資料(修改用)'!C20="","",'中文資料(修改用)'!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="D20" s="2" t="str">
         <f>IF('中文資料(修改用)'!D20="","",'中文資料(修改用)'!D20)</f>
         <v/>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="str">
         <f>IF('中文資料(修改用)'!E20="","",'中文資料(修改用)'!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F20="","",'中文資料(修改用)'!F20)</f>
-        <v/>
-      </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" s="2" t="str">
         <f>IF('中文資料(修改用)'!G20="","",'中文資料(修改用)'!G20)</f>
         <v/>
       </c>
-      <c r="H20" s="3" t="str">
+      <c r="H20" s="2" t="str">
         <f>IF('中文資料(修改用)'!H20="","",'中文資料(修改用)'!H20)</f>
         <v/>
       </c>
-      <c r="I20" s="3" t="str">
+      <c r="I20" s="2" t="str">
         <f>IF('中文資料(修改用)'!I20="","",'中文資料(修改用)'!I20)</f>
         <v/>
       </c>
-      <c r="J20" s="3" t="str">
+      <c r="J20" s="2" t="str">
         <f>IF('中文資料(修改用)'!J20="","",'中文資料(修改用)'!J20)</f>
         <v/>
       </c>
-      <c r="K20" s="3" t="str">
+      <c r="K20" s="2" t="str">
         <f>IF('中文資料(修改用)'!K20="","",'中文資料(修改用)'!K20)</f>
         <v/>
       </c>
-      <c r="L20" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L20="","",'中文資料(修改用)'!L20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="3" t="str">
+      <c r="L20" s="2" t="str">
         <f>IF('中文資料(修改用)'!M20="","",'中文資料(修改用)'!M20)</f>
         <v/>
       </c>
-      <c r="N20" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N20="","",'中文資料(修改用)'!N20)</f>
-        <v/>
-      </c>
-      <c r="O20" s="3" t="str">
+      <c r="M20" s="2" t="str">
         <f>IF('中文資料(修改用)'!O20="","",'中文資料(修改用)'!O20)</f>
         <v/>
       </c>
-      <c r="P20" s="3" t="str">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="str">
         <f>IF('中文資料(修改用)'!P20="","",'中文資料(修改用)'!P20)</f>
         <v/>
       </c>
-      <c r="Q20" s="3" t="str">
+      <c r="P20" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q20="","",'中文資料(修改用)'!Q20)</f>
         <v/>
       </c>
+      <c r="Q20" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R20="","",'中文資料(修改用)'!R20)</f>
+        <v/>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S20="","",'中文資料(修改用)'!S20)</f>
+        <v/>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T20="","",'中文資料(修改用)'!T20)</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
         <f>IF('中文資料(修改用)'!A21="","",'中文資料(修改用)'!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="2" t="str">
         <f>IF('中文資料(修改用)'!B21="","",'中文資料(修改用)'!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="2" t="str">
         <f>IF('中文資料(修改用)'!C21="","",'中文資料(修改用)'!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="2" t="str">
         <f>IF('中文資料(修改用)'!D21="","",'中文資料(修改用)'!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="str">
         <f>IF('中文資料(修改用)'!E21="","",'中文資料(修改用)'!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F21="","",'中文資料(修改用)'!F21)</f>
-        <v/>
-      </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" s="2" t="str">
         <f>IF('中文資料(修改用)'!G21="","",'中文資料(修改用)'!G21)</f>
         <v/>
       </c>
-      <c r="H21" s="3" t="str">
+      <c r="H21" s="2" t="str">
         <f>IF('中文資料(修改用)'!H21="","",'中文資料(修改用)'!H21)</f>
         <v/>
       </c>
-      <c r="I21" s="3" t="str">
+      <c r="I21" s="2" t="str">
         <f>IF('中文資料(修改用)'!I21="","",'中文資料(修改用)'!I21)</f>
         <v/>
       </c>
-      <c r="J21" s="3" t="str">
+      <c r="J21" s="2" t="str">
         <f>IF('中文資料(修改用)'!J21="","",'中文資料(修改用)'!J21)</f>
         <v/>
       </c>
-      <c r="K21" s="3" t="str">
+      <c r="K21" s="2" t="str">
         <f>IF('中文資料(修改用)'!K21="","",'中文資料(修改用)'!K21)</f>
         <v/>
       </c>
-      <c r="L21" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L21="","",'中文資料(修改用)'!L21)</f>
-        <v/>
-      </c>
-      <c r="M21" s="3" t="str">
+      <c r="L21" s="2" t="str">
         <f>IF('中文資料(修改用)'!M21="","",'中文資料(修改用)'!M21)</f>
         <v/>
       </c>
-      <c r="N21" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N21="","",'中文資料(修改用)'!N21)</f>
-        <v/>
-      </c>
-      <c r="O21" s="3" t="str">
+      <c r="M21" s="2" t="str">
         <f>IF('中文資料(修改用)'!O21="","",'中文資料(修改用)'!O21)</f>
         <v/>
       </c>
-      <c r="P21" s="3" t="str">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="str">
         <f>IF('中文資料(修改用)'!P21="","",'中文資料(修改用)'!P21)</f>
         <v/>
       </c>
-      <c r="Q21" s="3" t="str">
+      <c r="P21" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q21="","",'中文資料(修改用)'!Q21)</f>
         <v/>
       </c>
+      <c r="Q21" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R21="","",'中文資料(修改用)'!R21)</f>
+        <v/>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S21="","",'中文資料(修改用)'!S21)</f>
+        <v/>
+      </c>
+      <c r="S21" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T21="","",'中文資料(修改用)'!T21)</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
         <f>IF('中文資料(修改用)'!A22="","",'中文資料(修改用)'!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="2" t="str">
         <f>IF('中文資料(修改用)'!B22="","",'中文資料(修改用)'!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <f>IF('中文資料(修改用)'!C22="","",'中文資料(修改用)'!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="D22" s="2" t="str">
         <f>IF('中文資料(修改用)'!D22="","",'中文資料(修改用)'!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="str">
         <f>IF('中文資料(修改用)'!E22="","",'中文資料(修改用)'!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F22="","",'中文資料(修改用)'!F22)</f>
-        <v/>
-      </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="2" t="str">
         <f>IF('中文資料(修改用)'!G22="","",'中文資料(修改用)'!G22)</f>
         <v/>
       </c>
-      <c r="H22" s="3" t="str">
+      <c r="H22" s="2" t="str">
         <f>IF('中文資料(修改用)'!H22="","",'中文資料(修改用)'!H22)</f>
         <v/>
       </c>
-      <c r="I22" s="3" t="str">
+      <c r="I22" s="2" t="str">
         <f>IF('中文資料(修改用)'!I22="","",'中文資料(修改用)'!I22)</f>
         <v/>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="J22" s="2" t="str">
         <f>IF('中文資料(修改用)'!J22="","",'中文資料(修改用)'!J22)</f>
         <v/>
       </c>
-      <c r="K22" s="3" t="str">
+      <c r="K22" s="2" t="str">
         <f>IF('中文資料(修改用)'!K22="","",'中文資料(修改用)'!K22)</f>
         <v/>
       </c>
-      <c r="L22" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L22="","",'中文資料(修改用)'!L22)</f>
-        <v/>
-      </c>
-      <c r="M22" s="3" t="str">
+      <c r="L22" s="2" t="str">
         <f>IF('中文資料(修改用)'!M22="","",'中文資料(修改用)'!M22)</f>
         <v/>
       </c>
-      <c r="N22" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N22="","",'中文資料(修改用)'!N22)</f>
-        <v/>
-      </c>
-      <c r="O22" s="3" t="str">
+      <c r="M22" s="2" t="str">
         <f>IF('中文資料(修改用)'!O22="","",'中文資料(修改用)'!O22)</f>
         <v/>
       </c>
-      <c r="P22" s="3" t="str">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="str">
         <f>IF('中文資料(修改用)'!P22="","",'中文資料(修改用)'!P22)</f>
         <v/>
       </c>
-      <c r="Q22" s="3" t="str">
+      <c r="P22" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q22="","",'中文資料(修改用)'!Q22)</f>
         <v/>
       </c>
+      <c r="Q22" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R22="","",'中文資料(修改用)'!R22)</f>
+        <v/>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S22="","",'中文資料(修改用)'!S22)</f>
+        <v/>
+      </c>
+      <c r="S22" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T22="","",'中文資料(修改用)'!T22)</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="str">
         <f>IF('中文資料(修改用)'!A23="","",'中文資料(修改用)'!A23)</f>
         <v/>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="2" t="str">
         <f>IF('中文資料(修改用)'!B23="","",'中文資料(修改用)'!B23)</f>
         <v/>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="2" t="str">
         <f>IF('中文資料(修改用)'!C23="","",'中文資料(修改用)'!C23)</f>
         <v/>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D23" s="2" t="str">
         <f>IF('中文資料(修改用)'!D23="","",'中文資料(修改用)'!D23)</f>
         <v/>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="str">
         <f>IF('中文資料(修改用)'!E23="","",'中文資料(修改用)'!E23)</f>
         <v/>
       </c>
-      <c r="F23" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F23="","",'中文資料(修改用)'!F23)</f>
-        <v/>
-      </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="2" t="str">
         <f>IF('中文資料(修改用)'!G23="","",'中文資料(修改用)'!G23)</f>
         <v/>
       </c>
-      <c r="H23" s="3" t="str">
+      <c r="H23" s="2" t="str">
         <f>IF('中文資料(修改用)'!H23="","",'中文資料(修改用)'!H23)</f>
         <v/>
       </c>
-      <c r="I23" s="3" t="str">
+      <c r="I23" s="2" t="str">
         <f>IF('中文資料(修改用)'!I23="","",'中文資料(修改用)'!I23)</f>
         <v/>
       </c>
-      <c r="J23" s="3" t="str">
+      <c r="J23" s="2" t="str">
         <f>IF('中文資料(修改用)'!J23="","",'中文資料(修改用)'!J23)</f>
         <v/>
       </c>
-      <c r="K23" s="3" t="str">
+      <c r="K23" s="2" t="str">
         <f>IF('中文資料(修改用)'!K23="","",'中文資料(修改用)'!K23)</f>
         <v/>
       </c>
-      <c r="L23" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L23="","",'中文資料(修改用)'!L23)</f>
-        <v/>
-      </c>
-      <c r="M23" s="3" t="str">
+      <c r="L23" s="2" t="str">
         <f>IF('中文資料(修改用)'!M23="","",'中文資料(修改用)'!M23)</f>
         <v/>
       </c>
-      <c r="N23" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N23="","",'中文資料(修改用)'!N23)</f>
-        <v/>
-      </c>
-      <c r="O23" s="3" t="str">
+      <c r="M23" s="2" t="str">
         <f>IF('中文資料(修改用)'!O23="","",'中文資料(修改用)'!O23)</f>
         <v/>
       </c>
-      <c r="P23" s="3" t="str">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="str">
         <f>IF('中文資料(修改用)'!P23="","",'中文資料(修改用)'!P23)</f>
         <v/>
       </c>
-      <c r="Q23" s="3" t="str">
+      <c r="P23" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q23="","",'中文資料(修改用)'!Q23)</f>
         <v/>
       </c>
+      <c r="Q23" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R23="","",'中文資料(修改用)'!R23)</f>
+        <v/>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S23="","",'中文資料(修改用)'!S23)</f>
+        <v/>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T23="","",'中文資料(修改用)'!T23)</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
         <f>IF('中文資料(修改用)'!A24="","",'中文資料(修改用)'!A24)</f>
         <v/>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="2" t="str">
         <f>IF('中文資料(修改用)'!B24="","",'中文資料(修改用)'!B24)</f>
         <v/>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="2" t="str">
         <f>IF('中文資料(修改用)'!C24="","",'中文資料(修改用)'!C24)</f>
         <v/>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D24" s="2" t="str">
         <f>IF('中文資料(修改用)'!D24="","",'中文資料(修改用)'!D24)</f>
         <v/>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="str">
         <f>IF('中文資料(修改用)'!E24="","",'中文資料(修改用)'!E24)</f>
         <v/>
       </c>
-      <c r="F24" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F24="","",'中文資料(修改用)'!F24)</f>
-        <v/>
-      </c>
-      <c r="G24" s="3" t="str">
+      <c r="G24" s="2" t="str">
         <f>IF('中文資料(修改用)'!G24="","",'中文資料(修改用)'!G24)</f>
         <v/>
       </c>
-      <c r="H24" s="3" t="str">
+      <c r="H24" s="2" t="str">
         <f>IF('中文資料(修改用)'!H24="","",'中文資料(修改用)'!H24)</f>
         <v/>
       </c>
-      <c r="I24" s="3" t="str">
+      <c r="I24" s="2" t="str">
         <f>IF('中文資料(修改用)'!I24="","",'中文資料(修改用)'!I24)</f>
         <v/>
       </c>
-      <c r="J24" s="3" t="str">
+      <c r="J24" s="2" t="str">
         <f>IF('中文資料(修改用)'!J24="","",'中文資料(修改用)'!J24)</f>
         <v/>
       </c>
-      <c r="K24" s="3" t="str">
+      <c r="K24" s="2" t="str">
         <f>IF('中文資料(修改用)'!K24="","",'中文資料(修改用)'!K24)</f>
         <v/>
       </c>
-      <c r="L24" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L24="","",'中文資料(修改用)'!L24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="3" t="str">
+      <c r="L24" s="2" t="str">
         <f>IF('中文資料(修改用)'!M24="","",'中文資料(修改用)'!M24)</f>
         <v/>
       </c>
-      <c r="N24" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N24="","",'中文資料(修改用)'!N24)</f>
-        <v/>
-      </c>
-      <c r="O24" s="3" t="str">
+      <c r="M24" s="2" t="str">
         <f>IF('中文資料(修改用)'!O24="","",'中文資料(修改用)'!O24)</f>
         <v/>
       </c>
-      <c r="P24" s="3" t="str">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="str">
         <f>IF('中文資料(修改用)'!P24="","",'中文資料(修改用)'!P24)</f>
         <v/>
       </c>
-      <c r="Q24" s="3" t="str">
+      <c r="P24" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q24="","",'中文資料(修改用)'!Q24)</f>
         <v/>
       </c>
+      <c r="Q24" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R24="","",'中文資料(修改用)'!R24)</f>
+        <v/>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S24="","",'中文資料(修改用)'!S24)</f>
+        <v/>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T24="","",'中文資料(修改用)'!T24)</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
         <f>IF('中文資料(修改用)'!A25="","",'中文資料(修改用)'!A25)</f>
         <v/>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="2" t="str">
         <f>IF('中文資料(修改用)'!B25="","",'中文資料(修改用)'!B25)</f>
         <v/>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="2" t="str">
         <f>IF('中文資料(修改用)'!C25="","",'中文資料(修改用)'!C25)</f>
         <v/>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="2" t="str">
         <f>IF('中文資料(修改用)'!D25="","",'中文資料(修改用)'!D25)</f>
         <v/>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="str">
         <f>IF('中文資料(修改用)'!E25="","",'中文資料(修改用)'!E25)</f>
         <v/>
       </c>
-      <c r="F25" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F25="","",'中文資料(修改用)'!F25)</f>
-        <v/>
-      </c>
-      <c r="G25" s="3" t="str">
+      <c r="G25" s="2" t="str">
         <f>IF('中文資料(修改用)'!G25="","",'中文資料(修改用)'!G25)</f>
         <v/>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" s="2" t="str">
         <f>IF('中文資料(修改用)'!H25="","",'中文資料(修改用)'!H25)</f>
         <v/>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" s="2" t="str">
         <f>IF('中文資料(修改用)'!I25="","",'中文資料(修改用)'!I25)</f>
         <v/>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="J25" s="2" t="str">
         <f>IF('中文資料(修改用)'!J25="","",'中文資料(修改用)'!J25)</f>
         <v/>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="K25" s="2" t="str">
         <f>IF('中文資料(修改用)'!K25="","",'中文資料(修改用)'!K25)</f>
         <v/>
       </c>
-      <c r="L25" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L25="","",'中文資料(修改用)'!L25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="3" t="str">
+      <c r="L25" s="2" t="str">
         <f>IF('中文資料(修改用)'!M25="","",'中文資料(修改用)'!M25)</f>
         <v/>
       </c>
-      <c r="N25" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N25="","",'中文資料(修改用)'!N25)</f>
-        <v/>
-      </c>
-      <c r="O25" s="3" t="str">
+      <c r="M25" s="2" t="str">
         <f>IF('中文資料(修改用)'!O25="","",'中文資料(修改用)'!O25)</f>
         <v/>
       </c>
-      <c r="P25" s="3" t="str">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="str">
         <f>IF('中文資料(修改用)'!P25="","",'中文資料(修改用)'!P25)</f>
         <v/>
       </c>
-      <c r="Q25" s="3" t="str">
+      <c r="P25" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q25="","",'中文資料(修改用)'!Q25)</f>
         <v/>
       </c>
+      <c r="Q25" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R25="","",'中文資料(修改用)'!R25)</f>
+        <v/>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S25="","",'中文資料(修改用)'!S25)</f>
+        <v/>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T25="","",'中文資料(修改用)'!T25)</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="str">
         <f>IF('中文資料(修改用)'!A26="","",'中文資料(修改用)'!A26)</f>
         <v/>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="2" t="str">
         <f>IF('中文資料(修改用)'!B26="","",'中文資料(修改用)'!B26)</f>
         <v/>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="2" t="str">
         <f>IF('中文資料(修改用)'!C26="","",'中文資料(修改用)'!C26)</f>
         <v/>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="2" t="str">
         <f>IF('中文資料(修改用)'!D26="","",'中文資料(修改用)'!D26)</f>
         <v/>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="str">
         <f>IF('中文資料(修改用)'!E26="","",'中文資料(修改用)'!E26)</f>
         <v/>
       </c>
-      <c r="F26" s="3" t="str">
-        <f>IF('中文資料(修改用)'!F26="","",'中文資料(修改用)'!F26)</f>
-        <v/>
-      </c>
-      <c r="G26" s="3" t="str">
+      <c r="G26" s="2" t="str">
         <f>IF('中文資料(修改用)'!G26="","",'中文資料(修改用)'!G26)</f>
         <v/>
       </c>
-      <c r="H26" s="3" t="str">
+      <c r="H26" s="2" t="str">
         <f>IF('中文資料(修改用)'!H26="","",'中文資料(修改用)'!H26)</f>
         <v/>
       </c>
-      <c r="I26" s="3" t="str">
+      <c r="I26" s="2" t="str">
         <f>IF('中文資料(修改用)'!I26="","",'中文資料(修改用)'!I26)</f>
         <v/>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="J26" s="2" t="str">
         <f>IF('中文資料(修改用)'!J26="","",'中文資料(修改用)'!J26)</f>
         <v/>
       </c>
-      <c r="K26" s="3" t="str">
+      <c r="K26" s="2" t="str">
         <f>IF('中文資料(修改用)'!K26="","",'中文資料(修改用)'!K26)</f>
         <v/>
       </c>
-      <c r="L26" s="3" t="str">
-        <f>IF('中文資料(修改用)'!L26="","",'中文資料(修改用)'!L26)</f>
-        <v/>
-      </c>
-      <c r="M26" s="3" t="str">
+      <c r="L26" s="2" t="str">
         <f>IF('中文資料(修改用)'!M26="","",'中文資料(修改用)'!M26)</f>
         <v/>
       </c>
-      <c r="N26" s="3" t="str">
-        <f>IF('中文資料(修改用)'!N26="","",'中文資料(修改用)'!N26)</f>
-        <v/>
-      </c>
-      <c r="O26" s="3" t="str">
+      <c r="M26" s="2" t="str">
         <f>IF('中文資料(修改用)'!O26="","",'中文資料(修改用)'!O26)</f>
         <v/>
       </c>
-      <c r="P26" s="3" t="str">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="str">
         <f>IF('中文資料(修改用)'!P26="","",'中文資料(修改用)'!P26)</f>
         <v/>
       </c>
-      <c r="Q26" s="3" t="str">
+      <c r="P26" s="2" t="str">
         <f>IF('中文資料(修改用)'!Q26="","",'中文資料(修改用)'!Q26)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f>IF('中文資料(修改用)'!R26="","",'中文資料(修改用)'!R26)</f>
+        <v/>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f>IF('中文資料(修改用)'!S26="","",'中文資料(修改用)'!S26)</f>
+        <v/>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f>IF('中文資料(修改用)'!T26="","",'中文資料(修改用)'!T26)</f>
         <v/>
       </c>
     </row>
@@ -2644,624 +3067,737 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5FE786-8048-49B7-A171-3D68083AD709}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="2">
         <v>912345678</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="6">
         <v>32874</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="2" t="str">
+        <f>T2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2</f>
+        <v>110台北市信義區忠孝東路五段123號5樓之3</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="T2" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="2">
         <v>987654321</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="6">
         <v>31213</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N11" si="0">T3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3</f>
+        <v>406台中市北屯區崇德路二段120巷8弄56號3樓</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="T3" s="2">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="2">
         <v>922333444</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="6">
         <v>33675</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>220新北市板橋區中山路一段5巷45號2樓</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="T4" s="2">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="2">
         <v>933444555</v>
       </c>
-      <c r="J5" s="4">
-        <v>32470</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="6">
+        <v>32877</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>807高雄市三民區建國路78號</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="T5" s="2">
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="2">
         <v>944555666</v>
       </c>
-      <c r="J6" s="4">
-        <v>34910</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="6">
+        <v>32878</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>701台南市東區民權路3巷101號4樓</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="T6" s="2">
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="2">
         <v>966777888</v>
       </c>
-      <c r="J7" s="4">
-        <v>33498</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6">
+        <v>32879</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>330桃園市桃園區春日路32號</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="T7" s="2">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="2">
         <v>977888999</v>
       </c>
-      <c r="J8" s="4">
-        <v>31902</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="6">
+        <v>32880</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>300新竹市東區光復路1巷88號3樓</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="2">
         <v>911222333</v>
       </c>
-      <c r="J9" s="4">
-        <v>34311</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6">
+        <v>32881</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>600嘉義市西區中正路56號</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="2">
         <v>988999000</v>
       </c>
-      <c r="J10" s="4">
-        <v>31457</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6">
+        <v>32882</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>500彰化縣彰化市中山路12巷77號2樓</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="R10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="S10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="2">
         <v>955333777</v>
       </c>
-      <c r="J11" s="4">
-        <v>34444</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="6">
+        <v>32883</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>265宜蘭縣羅東鎮興東路18號</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="T11" s="2">
         <v>265</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:mingwei@example.com" xr:uid="{D94111EA-2DE5-44F2-B145-62723B005B13}"/>
-    <hyperlink ref="E3" r:id="rId2" display="mailto:lijun@example.com" xr:uid="{552F49B5-A3E7-4967-8805-E5234D2F259E}"/>
-    <hyperlink ref="E4" r:id="rId3" display="mailto:weixiang@example.com" xr:uid="{7612CEF5-97C6-4553-9AC6-600B369998A3}"/>
-    <hyperlink ref="E5" r:id="rId4" display="mailto:tingxuan@example.com" xr:uid="{3B24D67A-288F-49AC-A641-F0F423A7CC7B}"/>
-    <hyperlink ref="E6" r:id="rId5" display="mailto:hongda@example.com" xr:uid="{6880C6C7-2C3C-44D6-91B0-74650DF214C4}"/>
-    <hyperlink ref="E7" r:id="rId6" display="mailto:fenfang@example.com" xr:uid="{34CD53B6-0848-40C6-85BD-0407576E7392}"/>
-    <hyperlink ref="E8" r:id="rId7" display="mailto:qianghao@example.com" xr:uid="{60BADC36-0901-49B5-849D-C1D4AE53F68E}"/>
-    <hyperlink ref="E9" r:id="rId8" display="mailto:xuemei@example.com" xr:uid="{257112A9-0DAD-4CED-9453-E6A245DBDE5F}"/>
-    <hyperlink ref="E10" r:id="rId9" display="mailto:zhiming@example.com" xr:uid="{FB578D21-60EE-49F1-8FC8-21ABD6EE8ECF}"/>
-    <hyperlink ref="E11" r:id="rId10" display="mailto:linyan@example.com" xr:uid="{764FEDBD-1355-45B8-B0CC-4DA16A4AF977}"/>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:mingwei@example.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:lijun@example.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:weixiang@example.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="mailto:tingxuan@example.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:hongda@example.com" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="mailto:fenfang@example.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="mailto:qianghao@example.com" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="mailto:xuemei@example.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="mailto:zhiming@example.com" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" display="mailto:linyan@example.com" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
